--- a/Programas e insumos/Fractales.xlsx
+++ b/Programas e insumos/Fractales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CC8C19-3BE8-4AC8-8AEF-2D997E79394F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3617B8-BCC8-45EB-B403-20C54A9FB056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
@@ -467,7 +467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAE9778-9210-41AC-899F-6D8EA074B69F}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
